--- a/tracking/features.xlsx
+++ b/tracking/features.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzdy1994/Desktop/Kaggle/Safe-Driver-Prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzdy1994/Desktop/Kaggle/Safe-Driver-Prediction/tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original features" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="237">
   <si>
     <t>#</t>
   </si>
@@ -625,9 +625,6 @@
     <t>regional information, only 19 unique values</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>Gain</t>
   </si>
   <si>
@@ -737,6 +734,12 @@
   </si>
   <si>
     <t>avg_car13_on_ind13</t>
+  </si>
+  <si>
+    <t>LightGBM_Feature</t>
+  </si>
+  <si>
+    <t>XGboost_Feature</t>
   </si>
 </sst>
 </file>
@@ -860,9 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -889,9 +889,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -939,6 +936,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1229,1337 +1232,1337 @@
     <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="45.5" style="30" customWidth="1"/>
     <col min="7" max="7" width="83.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="33"/>
+    <col min="9" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="22"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="22"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="23"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="23"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="31" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="10" t="s">
+      <c r="F35" s="27"/>
+      <c r="G35" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="33" t="s">
+      <c r="H35" s="9"/>
+      <c r="I35" s="31" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="33" t="s">
+      <c r="H37" s="15"/>
+      <c r="I37" s="31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
+      <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="33" t="s">
+      <c r="H38" s="15"/>
+      <c r="I38" s="31" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="28"/>
+      <c r="G39" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="33" t="s">
+      <c r="H39" s="15"/>
+      <c r="I39" s="31" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="33" t="s">
+      <c r="H40" s="15"/>
+      <c r="I40" s="31" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
+      <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+      <c r="A44" s="13">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+      <c r="A45" s="13">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="33" t="s">
+      <c r="H45" s="7"/>
+      <c r="I45" s="31" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+      <c r="A47" s="13">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+      <c r="A48" s="13">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="A49" s="13">
         <v>48</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
+      <c r="F49" s="26"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+      <c r="A51" s="13">
         <v>50</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="13">
         <v>51</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+      <c r="A53" s="13">
         <v>52</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="31" t="s">
+      <c r="F55" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F56" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="11"/>
+      <c r="H58" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="31" t="s">
+      <c r="F59" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="31" t="s">
+      <c r="F60" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2583,77 +2586,77 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2667,607 +2670,870 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="F1" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="B2" s="34">
+        <v>0.120632329802577</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3.6120401337792603E-2</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="34">
+        <v>0.169877091833496</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0.14789106962395601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="36">
-        <v>0.120632329802577</v>
-      </c>
-      <c r="C2" s="36">
-        <v>3.6120401337792603E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="B3" s="34">
+        <v>9.6580350942298193E-2</v>
+      </c>
+      <c r="C3" s="34">
+        <v>7.2201455833169406E-2</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.107556168485841</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.125791181320143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="34">
+        <v>7.9616814804305006E-2</v>
+      </c>
+      <c r="C4" s="34">
+        <v>8.2825103285461305E-2</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="34">
+        <v>8.6423581872367594E-2</v>
+      </c>
+      <c r="H4" s="34">
+        <v>5.0130312217435198E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="36">
-        <v>9.6580350942298193E-2</v>
-      </c>
-      <c r="C3" s="36">
-        <v>7.2201455833169406E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="B5" s="34">
+        <v>7.8999485996748595E-2</v>
+      </c>
+      <c r="C5" s="34">
+        <v>4.6626008262836902E-2</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="34">
+        <v>8.5035924618113101E-2</v>
+      </c>
+      <c r="H5" s="34">
+        <v>6.6379447901707397E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="34">
+        <v>6.6007152018238105E-2</v>
+      </c>
+      <c r="C6" s="34">
+        <v>7.3106433208735E-2</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="36">
-        <v>7.9616814804305006E-2</v>
-      </c>
-      <c r="C4" s="36">
-        <v>8.2825103285461305E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="G6" s="34">
+        <v>6.9780840701807206E-2</v>
+      </c>
+      <c r="H6" s="34">
+        <v>7.2788681453114207E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="34">
+        <v>5.8224636493812897E-2</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2.8054298642533899E-2</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="34">
+        <v>5.8374910287446298E-2</v>
+      </c>
+      <c r="H7" s="34">
+        <v>8.1378650071804698E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="34">
+        <v>4.86871851684295E-2</v>
+      </c>
+      <c r="C8" s="34">
+        <v>6.7676568955341299E-2</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="34">
+        <v>5.6189956529924999E-2</v>
+      </c>
+      <c r="H8" s="34">
+        <v>6.4757193766288995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="36">
-        <v>7.8999485996748595E-2</v>
-      </c>
-      <c r="C5" s="36">
-        <v>4.6626008262836902E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="36">
-        <v>6.6007152018238105E-2</v>
-      </c>
-      <c r="C6" s="36">
-        <v>7.3106433208735E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="B9" s="34">
+        <v>4.0101440973972599E-2</v>
+      </c>
+      <c r="C9" s="34">
+        <v>4.0173126106629903E-2</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="34">
+        <v>4.8002730280756398E-2</v>
+      </c>
+      <c r="H9" s="34">
+        <v>4.6593266315621502E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="34">
+        <v>3.49955482196454E-2</v>
+      </c>
+      <c r="C10" s="34">
+        <v>4.4304544560299003E-2</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="36">
-        <v>5.8224636493812897E-2</v>
-      </c>
-      <c r="C7" s="36">
-        <v>2.8054298642533899E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="36">
-        <v>4.86871851684295E-2</v>
-      </c>
-      <c r="C8" s="36">
-        <v>6.7676568955341299E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="G10" s="34">
+        <v>4.36733886886271E-2</v>
+      </c>
+      <c r="H10" s="34">
+        <v>3.1221743524280601E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="36">
-        <v>4.0101440973972599E-2</v>
-      </c>
-      <c r="C9" s="36">
-        <v>4.0173126106629903E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="B11" s="34">
+        <v>2.9611237276546801E-2</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2.0735785953177301E-2</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="34">
+        <v>3.7995910791002799E-2</v>
+      </c>
+      <c r="H11" s="34">
+        <v>4.5423115791713202E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="34">
+        <v>2.8064250764773299E-2</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1.3850088530395399E-2</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="36">
-        <v>3.49955482196454E-2</v>
-      </c>
-      <c r="C10" s="36">
-        <v>4.4304544560299003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="G12" s="34">
+        <v>3.7897308332159298E-2</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4.4252965267804902E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="36">
-        <v>2.9611237276546801E-2</v>
-      </c>
-      <c r="C11" s="36">
-        <v>2.0735785953177301E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="B13" s="34">
+        <v>2.7928461432547201E-2</v>
+      </c>
+      <c r="C13" s="34">
+        <v>4.11174503246114E-2</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="34">
+        <v>3.5271315369844798E-2</v>
+      </c>
+      <c r="H13" s="34">
+        <v>4.48380405297591E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="34">
+        <v>2.4967177983117698E-2</v>
+      </c>
+      <c r="C14" s="34">
+        <v>3.0651190241983099E-2</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="34">
+        <v>2.5318962211154501E-2</v>
+      </c>
+      <c r="H14" s="34">
+        <v>3.3535450242008401E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="34">
+        <v>2.4585370602153302E-2</v>
+      </c>
+      <c r="C15" s="34">
+        <v>4.9813102498524497E-2</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="34">
+        <v>2.16963002470833E-2</v>
+      </c>
+      <c r="H15" s="34">
+        <v>2.30572841870113E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="34">
+        <v>2.1637308019255001E-2</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2.0775132795593201E-2</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="34">
+        <v>1.9493498559561801E-2</v>
+      </c>
+      <c r="H16" s="34">
+        <v>3.0264347641082899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="34">
+        <v>1.9924198988946401E-2</v>
+      </c>
+      <c r="C17" s="34">
+        <v>2.1719457013574701E-2</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="36">
-        <v>2.8064250764773299E-2</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1.3850088530395399E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="36">
-        <v>2.7928461432547201E-2</v>
-      </c>
-      <c r="C13" s="36">
-        <v>4.11174503246114E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="36">
-        <v>2.4967177983117698E-2</v>
-      </c>
-      <c r="C14" s="36">
-        <v>3.0651190241983099E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="36">
-        <v>2.4585370602153302E-2</v>
-      </c>
-      <c r="C15" s="36">
-        <v>4.9813102498524497E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="36">
-        <v>2.1637308019255001E-2</v>
-      </c>
-      <c r="C16" s="36">
-        <v>2.0775132795593201E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="G17" s="34">
+        <v>1.8999319895030699E-2</v>
+      </c>
+      <c r="H17" s="34">
+        <v>1.09568639965959E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1.79789813568683E-2</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1.03875663977966E-2</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1.5611575624812499E-2</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1.3350353704590199E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="36">
-        <v>1.9924198988946401E-2</v>
-      </c>
-      <c r="C17" s="36">
-        <v>2.1719457013574701E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="B19" s="34">
+        <v>1.6968616253064301E-2</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1.44402911666339E-2</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="36">
-        <v>1.79789813568683E-2</v>
-      </c>
-      <c r="C18" s="36">
+      <c r="G19" s="34">
+        <v>1.4518012026901299E-2</v>
+      </c>
+      <c r="H19" s="34">
+        <v>1.0797298016063E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="34">
+        <v>1.4888679676576101E-2</v>
+      </c>
+      <c r="C20" s="34">
+        <v>1.2630336415502701E-2</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="34">
+        <v>1.27012540938159E-2</v>
+      </c>
+      <c r="H20" s="34">
+        <v>1.6222541354183301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="34">
+        <v>1.4866135543087799E-2</v>
+      </c>
+      <c r="C21" s="34">
+        <v>3.4664568168404498E-2</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="34">
+        <v>1.2427598893924001E-2</v>
+      </c>
+      <c r="H21" s="34">
+        <v>1.42811552576991E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="34">
+        <v>1.4858628545277501E-2</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1.7155223293330701E-2</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="34">
+        <v>8.9160449078527198E-3</v>
+      </c>
+      <c r="H22" s="34">
+        <v>7.7921387160257401E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="34">
+        <v>1.2436886241765E-2</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2.1404682274247501E-2</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="34">
+        <v>6.6846401996933699E-3</v>
+      </c>
+      <c r="H23" s="34">
+        <v>7.2070634540715899E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="34">
+        <v>1.19318513513187E-2</v>
+      </c>
+      <c r="C24" s="34">
+        <v>7.7119811135156402E-3</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="34">
+        <v>2.7725983405526701E-3</v>
+      </c>
+      <c r="H24" s="34">
+        <v>4.0157438434125798E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="34">
+        <v>9.7120814682968605E-3</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1.7115876450914801E-2</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="34">
+        <v>2.5026271582410001E-3</v>
+      </c>
+      <c r="H25" s="34">
+        <v>3.8295835327908099E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" s="34">
+        <v>6.62324875350575E-3</v>
+      </c>
+      <c r="C26" s="34">
+        <v>9.4825890222309701E-3</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="34">
+        <v>1.93483476933827E-3</v>
+      </c>
+      <c r="H26" s="34">
+        <v>2.6062443487048599E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="34">
+        <v>6.5991751620626997E-3</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1.61715522329333E-2</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="34">
+        <v>2.11401595318927E-4</v>
+      </c>
+      <c r="H27" s="34">
+        <v>3.72320621243551E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="34">
+        <v>6.5419032646097299E-3</v>
+      </c>
+      <c r="C28" s="34">
+        <v>1.3653354318316E-2</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="34">
+        <v>8.3370579297905703E-5</v>
+      </c>
+      <c r="H28" s="34">
+        <v>1.5956598053294999E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="34">
+        <v>6.5264400130833396E-3</v>
+      </c>
+      <c r="C29" s="34">
         <v>1.03875663977966E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="36">
-        <v>1.6968616253064301E-2</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1.44402911666339E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="36">
-        <v>1.4888679676576101E-2</v>
-      </c>
-      <c r="C20" s="36">
-        <v>1.2630336415502701E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="36">
-        <v>1.4866135543087799E-2</v>
-      </c>
-      <c r="C21" s="36">
-        <v>3.4664568168404498E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="36">
-        <v>1.4858628545277501E-2</v>
-      </c>
-      <c r="C22" s="36">
-        <v>1.7155223293330701E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="36">
-        <v>1.2436886241765E-2</v>
-      </c>
-      <c r="C23" s="36">
-        <v>2.1404682274247501E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="36">
-        <v>1.19318513513187E-2</v>
-      </c>
-      <c r="C24" s="36">
-        <v>7.7119811135156402E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="36">
-        <v>9.7120814682968605E-3</v>
-      </c>
-      <c r="C25" s="36">
-        <v>1.7115876450914801E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="36">
-        <v>6.62324875350575E-3</v>
-      </c>
-      <c r="C26" s="36">
-        <v>9.4825890222309701E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="36">
-        <v>6.5991751620626997E-3</v>
-      </c>
-      <c r="C27" s="36">
-        <v>1.61715522329333E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="36">
-        <v>6.5419032646097299E-3</v>
-      </c>
-      <c r="C28" s="36">
-        <v>1.3653354318316E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="F29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="34">
+        <v>4.8833106034806699E-5</v>
+      </c>
+      <c r="H29" s="34">
+        <v>1.063773203553E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="34">
+        <v>6.4409403548997797E-3</v>
+      </c>
+      <c r="C30" s="34">
+        <v>1.3771394845563599E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B29" s="36">
-        <v>6.5264400130833396E-3</v>
-      </c>
-      <c r="C29" s="36">
-        <v>1.03875663977966E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="36">
-        <v>6.4409403548997797E-3</v>
-      </c>
-      <c r="C30" s="36">
-        <v>1.3771394845563599E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="B31" s="34">
+        <v>5.9850601319008899E-3</v>
+      </c>
+      <c r="C31" s="34">
+        <v>1.42829037969703E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="36">
-        <v>5.9850601319008899E-3</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1.42829037969703E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+      <c r="B32" s="34">
+        <v>5.9682791228028702E-3</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1.3377926421404699E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="34">
+        <v>4.47659949489686E-3</v>
+      </c>
+      <c r="C33" s="34">
+        <v>4.7216210899075402E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="B32" s="36">
-        <v>5.9682791228028702E-3</v>
-      </c>
-      <c r="C32" s="36">
-        <v>1.3377926421404699E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="36">
-        <v>4.47659949489686E-3</v>
-      </c>
-      <c r="C33" s="36">
-        <v>4.7216210899075402E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="B34" s="34">
+        <v>4.25022861534165E-3</v>
+      </c>
+      <c r="C34" s="34">
+        <v>9.0497737556561094E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="34">
+        <v>3.67568265056291E-3</v>
+      </c>
+      <c r="C35" s="34">
+        <v>8.2234900649222897E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="36">
-        <v>4.25022861534165E-3</v>
-      </c>
-      <c r="C34" s="36">
-        <v>9.0497737556561094E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="36">
-        <v>3.67568265056291E-3</v>
-      </c>
-      <c r="C35" s="36">
-        <v>8.2234900649222897E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="B36" s="34">
+        <v>3.3983931385380898E-3</v>
+      </c>
+      <c r="C36" s="34">
+        <v>8.1841432225063897E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="36">
-        <v>3.3983931385380898E-3</v>
-      </c>
-      <c r="C36" s="36">
-        <v>8.1841432225063897E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="B37" s="34">
+        <v>3.3193634548427898E-3</v>
+      </c>
+      <c r="C37" s="34">
+        <v>7.3972063741884701E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="36">
-        <v>3.3193634548427898E-3</v>
-      </c>
-      <c r="C37" s="36">
-        <v>7.3972063741884701E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="B38" s="34">
+        <v>2.9958170634246401E-3</v>
+      </c>
+      <c r="C38" s="34">
+        <v>6.6496163682864496E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="36">
-        <v>2.9958170634246401E-3</v>
-      </c>
-      <c r="C38" s="36">
-        <v>6.6496163682864496E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
+      <c r="B39" s="34">
+        <v>2.6051528774008702E-3</v>
+      </c>
+      <c r="C39" s="34">
+        <v>4.5248868778280504E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="36">
-        <v>2.6051528774008702E-3</v>
-      </c>
-      <c r="C39" s="36">
-        <v>4.5248868778280504E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+      <c r="B40" s="34">
+        <v>2.5536463479840701E-3</v>
+      </c>
+      <c r="C40" s="34">
+        <v>7.0430847924454103E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="36">
-        <v>2.5536463479840701E-3</v>
-      </c>
-      <c r="C40" s="36">
-        <v>7.0430847924454103E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="B41" s="34">
+        <v>2.2010983837218098E-3</v>
+      </c>
+      <c r="C41" s="34">
+        <v>3.9740310840055103E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="B41" s="36">
-        <v>2.2010983837218098E-3</v>
-      </c>
-      <c r="C41" s="36">
-        <v>3.9740310840055103E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
+      <c r="B42" s="34">
+        <v>2.1348133636179701E-3</v>
+      </c>
+      <c r="C42" s="34">
+        <v>5.0363958292346999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="36">
-        <v>2.1348133636179701E-3</v>
-      </c>
-      <c r="C42" s="36">
-        <v>5.0363958292346999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
+      <c r="B43" s="34">
+        <v>1.67319349852983E-3</v>
+      </c>
+      <c r="C43" s="34">
+        <v>2.6362384418650402E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="36">
-        <v>1.67319349852983E-3</v>
-      </c>
-      <c r="C43" s="36">
-        <v>2.6362384418650402E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
+      <c r="B44" s="34">
+        <v>1.65576517721324E-3</v>
+      </c>
+      <c r="C44" s="34">
+        <v>2.79362581152862E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="36">
-        <v>1.65576517721324E-3</v>
-      </c>
-      <c r="C44" s="36">
-        <v>2.79362581152862E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
+      <c r="B45" s="34">
+        <v>1.4994221128844199E-3</v>
+      </c>
+      <c r="C45" s="34">
+        <v>3.5018689750147599E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B45" s="36">
-        <v>1.4994221128844199E-3</v>
-      </c>
-      <c r="C45" s="36">
-        <v>3.5018689750147599E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
+      <c r="B46" s="34">
+        <v>1.4288779529421901E-3</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2.55754475703325E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="34">
+        <v>1.2512058310244301E-3</v>
+      </c>
+      <c r="C47" s="34">
+        <v>2.51819791461735E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="36">
-        <v>1.4288779529421901E-3</v>
-      </c>
-      <c r="C46" s="36">
-        <v>2.55754475703325E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="36">
-        <v>1.2512058310244301E-3</v>
-      </c>
-      <c r="C47" s="36">
-        <v>2.51819791461735E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="35" t="s">
+      <c r="B48" s="34">
+        <v>7.9290725838822198E-4</v>
+      </c>
+      <c r="C48" s="34">
+        <v>1.8493015935471199E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="36">
-        <v>7.9290725838822198E-4</v>
-      </c>
-      <c r="C48" s="36">
-        <v>1.8493015935471199E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="B49" s="34">
+        <v>5.4844811853032097E-4</v>
+      </c>
+      <c r="C49" s="34">
+        <v>1.0623647452292001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="36">
-        <v>5.4844811853032097E-4</v>
-      </c>
-      <c r="C49" s="36">
-        <v>1.0623647452292001E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="B50" s="34">
+        <v>3.2397407510044202E-4</v>
+      </c>
+      <c r="C50" s="34">
+        <v>9.0497737556561101E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="36">
-        <v>3.2397407510044202E-4</v>
-      </c>
-      <c r="C50" s="36">
-        <v>9.0497737556561101E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="B51" s="34">
+        <v>1.54725872793464E-4</v>
+      </c>
+      <c r="C51" s="34">
+        <v>5.9020263623844199E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="36">
-        <v>1.54725872793464E-4</v>
-      </c>
-      <c r="C51" s="36">
-        <v>5.9020263623844199E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B52" s="36">
+      <c r="B52" s="34">
         <v>9.5637789908968197E-5</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="34">
         <v>2.7542789691127303E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="34">
         <v>6.3262552065159394E-5</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="34">
         <v>7.8693684831792295E-5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="34">
         <v>1.19276438014319E-5</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="34">
         <v>3.93468424158961E-5</v>
       </c>
     </row>

--- a/tracking/features.xlsx
+++ b/tracking/features.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original features" sheetId="1" r:id="rId1"/>
     <sheet name="related posts" sheetId="3" r:id="rId2"/>
-    <sheet name="New features" sheetId="4" r:id="rId3"/>
+    <sheet name="New features importance" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="219">
   <si>
     <t>#</t>
   </si>
@@ -496,12 +496,6 @@
     <t>no obvious difference of claim rates among categories</t>
   </si>
   <si>
-    <t>Use or not</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>right-skewed, strongly correlated with ps_ind_12_bin</t>
   </si>
   <si>
@@ -631,9 +625,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>avg_car13_on_ind03</t>
-  </si>
-  <si>
     <t>ps_ind_05_catnew</t>
   </si>
   <si>
@@ -670,76 +661,31 @@
     <t>ps_ind_04_catnew</t>
   </si>
   <si>
-    <t>avg_car13_on_ind07</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind01</t>
-  </si>
-  <si>
     <t>avg_car13_on_ind04</t>
   </si>
   <si>
-    <t>avg_car13_on_ind06</t>
-  </si>
-  <si>
-    <t>avg_car13_on_reg02</t>
-  </si>
-  <si>
     <t>ps_car_06_catnew</t>
   </si>
   <si>
-    <t>avg_car13_on_reg01</t>
-  </si>
-  <si>
     <t>ps_car_05_catnew</t>
   </si>
   <si>
-    <t>avg_car13_on_ind16</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind14</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind09</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind08</t>
-  </si>
-  <si>
     <t>ps_car_04_catnew</t>
   </si>
   <si>
     <t>ps_car_08_catnew</t>
   </si>
   <si>
-    <t>avg_car13_on_ind12</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind15</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind17</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind18</t>
-  </si>
-  <si>
     <t>ps_car_02_catnew</t>
   </si>
   <si>
-    <t>avg_car13_on_ind11</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind10</t>
-  </si>
-  <si>
-    <t>avg_car13_on_ind13</t>
-  </si>
-  <si>
-    <t>LightGBM_Feature</t>
-  </si>
-  <si>
-    <t>XGboost_Feature</t>
+    <t>ps_car_10_catnew</t>
+  </si>
+  <si>
+    <t>LightGBM_Features</t>
+  </si>
+  <si>
+    <t>XGboost_Features</t>
   </si>
 </sst>
 </file>
@@ -749,7 +695,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -780,6 +726,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -829,7 +782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -852,12 +805,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -917,9 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -942,6 +929,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1220,11 +1211,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1232,13 +1221,12 @@
     <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="30" customWidth="1"/>
-    <col min="7" max="7" width="83.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="31"/>
+    <col min="6" max="6" width="45.5" style="29" customWidth="1"/>
+    <col min="7" max="7" width="114.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1254,17 +1242,14 @@
       <c r="E1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1278,13 +1263,12 @@
         <v>66</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1300,13 +1284,12 @@
       <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>69</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1322,15 +1305,14 @@
       <c r="E4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1346,13 +1328,12 @@
       <c r="E5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>154</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1372,11 +1353,10 @@
         <v>148</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1392,11 +1372,10 @@
       <c r="E7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1412,11 +1391,10 @@
       <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1432,18 +1410,17 @@
       <c r="E9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1459,11 +1436,10 @@
       <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1479,11 +1455,10 @@
       <c r="E11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1499,11 +1474,10 @@
       <c r="E12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1521,9 +1495,8 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1541,9 +1514,8 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1560,14 +1532,13 @@
         <v>72</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1585,9 +1556,8 @@
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1604,14 +1574,13 @@
         <v>110</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1629,9 +1598,8 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1647,15 +1615,14 @@
       <c r="E19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1671,11 +1638,10 @@
       <c r="E20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1691,11 +1657,10 @@
       <c r="E21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -1711,15 +1676,14 @@
       <c r="E22" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>146</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -1735,15 +1699,14 @@
       <c r="E23" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>148</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -1759,18 +1722,17 @@
       <c r="E24" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>148</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1786,13 +1748,12 @@
       <c r="E25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -1808,11 +1769,10 @@
       <c r="E26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1828,11 +1788,10 @@
       <c r="E27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1848,11 +1807,10 @@
       <c r="E28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1868,11 +1826,10 @@
       <c r="E29" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -1888,11 +1845,10 @@
       <c r="E30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1908,11 +1864,10 @@
       <c r="E31" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1928,11 +1883,10 @@
       <c r="E32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="27"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1948,11 +1902,10 @@
       <c r="E33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="27"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -1968,11 +1921,10 @@
       <c r="E34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="27"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1988,16 +1940,15 @@
       <c r="E35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="27"/>
+      <c r="F35" s="26"/>
       <c r="G35" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2013,13 +1964,12 @@
       <c r="E36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="25" t="s">
         <v>146</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -2035,18 +1985,17 @@
       <c r="E37" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="27" t="s">
         <v>148</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -2062,18 +2011,17 @@
       <c r="E38" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="27" t="s">
         <v>148</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -2089,16 +2037,15 @@
       <c r="E39" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F39" s="28"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="31" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -2114,18 +2061,17 @@
       <c r="E40" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>172</v>
+      <c r="F40" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -2141,13 +2087,12 @@
       <c r="E41" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="27" t="s">
         <v>138</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -2163,13 +2108,12 @@
       <c r="E42" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="27" t="s">
         <v>138</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -2185,13 +2129,12 @@
       <c r="E43" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="27" t="s">
         <v>138</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2207,11 +2150,10 @@
       <c r="E44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -2227,18 +2169,17 @@
       <c r="E45" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="25" t="s">
         <v>148</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -2254,15 +2195,12 @@
       <c r="E46" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="25" t="s">
         <v>146</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -2278,11 +2216,10 @@
       <c r="E47" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2298,13 +2235,12 @@
       <c r="E48" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>146</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -2320,13 +2256,10 @@
       <c r="E49" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="26"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -2342,11 +2275,10 @@
       <c r="E50" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="26"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -2362,11 +2294,10 @@
       <c r="E51" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="26"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -2382,13 +2313,12 @@
       <c r="E52" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="25" t="s">
         <v>148</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -2404,13 +2334,12 @@
       <c r="E53" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="25" t="s">
         <v>148</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -2426,11 +2355,10 @@
       <c r="E54" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="26"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -2446,13 +2374,12 @@
       <c r="E55" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="28" t="s">
         <v>153</v>
       </c>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -2468,13 +2395,12 @@
       <c r="E56" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="28" t="s">
         <v>153</v>
       </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -2490,13 +2416,12 @@
       <c r="E57" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="28" t="s">
         <v>153</v>
       </c>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -2512,15 +2437,12 @@
       <c r="E58" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="28" t="s">
         <v>153</v>
       </c>
       <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>58</v>
       </c>
@@ -2536,13 +2458,12 @@
       <c r="E59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>153</v>
       </c>
       <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>59</v>
       </c>
@@ -2558,11 +2479,10 @@
       <c r="E60" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>153</v>
       </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2586,78 +2506,78 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2670,871 +2590,695 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="35"/>
+    <col min="7" max="8" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="40">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C2" s="40">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="33">
+        <v>0.169877091833496</v>
+      </c>
+      <c r="H2" s="33">
+        <v>0.14789106962395601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="B3" s="40">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C3" s="40">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="33">
+        <v>0.107556168485841</v>
+      </c>
+      <c r="H3" s="33">
+        <v>0.125791181320143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="B4" s="40">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C4" s="40">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="G4" s="33">
+        <v>8.6423581872367594E-2</v>
+      </c>
+      <c r="H4" s="33">
+        <v>5.0130312217435198E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="40">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C5" s="40">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="G5" s="33">
+        <v>8.5035924618113101E-2</v>
+      </c>
+      <c r="H5" s="33">
+        <v>6.6379447901707397E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="40">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="33">
+        <v>6.9780840701807206E-2</v>
+      </c>
+      <c r="H6" s="33">
+        <v>7.2788681453114207E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="40">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C7" s="40">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="33">
+        <v>5.8374910287446298E-2</v>
+      </c>
+      <c r="H7" s="33">
+        <v>8.1378650071804698E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="40">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C8" s="40">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="33">
+        <v>5.6189956529924999E-2</v>
+      </c>
+      <c r="H8" s="33">
+        <v>6.4757193766288995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="34">
-        <v>0.120632329802577</v>
-      </c>
-      <c r="C2" s="34">
-        <v>3.6120401337792603E-2</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="B9" s="40">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C9" s="40">
+        <v>0.04</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="33">
+        <v>4.8002730280756398E-2</v>
+      </c>
+      <c r="H9" s="33">
+        <v>4.6593266315621502E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C10" s="40">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="33">
+        <v>4.36733886886271E-2</v>
+      </c>
+      <c r="H10" s="33">
+        <v>3.1221743524280601E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="40">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C11" s="40">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="33">
+        <v>3.7995910791002799E-2</v>
+      </c>
+      <c r="H11" s="33">
+        <v>4.5423115791713202E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="40">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C12" s="40">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="33">
+        <v>3.7897308332159298E-2</v>
+      </c>
+      <c r="H12" s="33">
+        <v>4.4252965267804902E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="40">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C13" s="40">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="33">
+        <v>3.5271315369844798E-2</v>
+      </c>
+      <c r="H13" s="33">
+        <v>4.48380405297591E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="40">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C14" s="40">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="33">
+        <v>2.5318962211154501E-2</v>
+      </c>
+      <c r="H14" s="33">
+        <v>3.3535450242008401E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="40">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C15" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="33">
+        <v>2.16963002470833E-2</v>
+      </c>
+      <c r="H15" s="33">
+        <v>2.30572841870113E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="40">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C16" s="40">
+        <v>0.03</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1.9493498559561801E-2</v>
+      </c>
+      <c r="H16" s="33">
+        <v>3.0264347641082899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="40">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C17" s="40">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="33">
+        <v>1.8999319895030699E-2</v>
+      </c>
+      <c r="H17" s="33">
+        <v>1.09568639965959E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="C18" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1.5611575624812499E-2</v>
+      </c>
+      <c r="H18" s="33">
+        <v>1.3350353704590199E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1.4518012026901299E-2</v>
+      </c>
+      <c r="H19" s="33">
+        <v>1.0797298016063E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C20" s="40">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="33">
+        <v>1.27012540938159E-2</v>
+      </c>
+      <c r="H20" s="33">
+        <v>1.6222541354183301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="40">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C21" s="40">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1.2427598893924001E-2</v>
+      </c>
+      <c r="H21" s="33">
+        <v>1.42811552576991E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C22" s="40">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="33">
+        <v>8.9160449078527198E-3</v>
+      </c>
+      <c r="H22" s="33">
+        <v>7.7921387160257401E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="40">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="33">
+        <v>6.6846401996933699E-3</v>
+      </c>
+      <c r="H23" s="33">
+        <v>7.2070634540715899E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C24" s="40">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="33">
+        <v>2.7725983405526701E-3</v>
+      </c>
+      <c r="H24" s="33">
+        <v>4.0157438434125798E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="34">
-        <v>0.169877091833496</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0.14789106962395601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="34">
-        <v>9.6580350942298193E-2</v>
-      </c>
-      <c r="C3" s="34">
-        <v>7.2201455833169406E-2</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.107556168485841</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0.125791181320143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="34">
-        <v>7.9616814804305006E-2</v>
-      </c>
-      <c r="C4" s="34">
-        <v>8.2825103285461305E-2</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="34">
-        <v>8.6423581872367594E-2</v>
-      </c>
-      <c r="H4" s="34">
-        <v>5.0130312217435198E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="34">
-        <v>7.8999485996748595E-2</v>
-      </c>
-      <c r="C5" s="34">
-        <v>4.6626008262836902E-2</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="34">
-        <v>8.5035924618113101E-2</v>
-      </c>
-      <c r="H5" s="34">
-        <v>6.6379447901707397E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="34">
-        <v>6.6007152018238105E-2</v>
-      </c>
-      <c r="C6" s="34">
-        <v>7.3106433208735E-2</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="34">
-        <v>6.9780840701807206E-2</v>
-      </c>
-      <c r="H6" s="34">
-        <v>7.2788681453114207E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="34">
-        <v>5.8224636493812897E-2</v>
-      </c>
-      <c r="C7" s="34">
-        <v>2.8054298642533899E-2</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="34">
-        <v>5.8374910287446298E-2</v>
-      </c>
-      <c r="H7" s="34">
-        <v>8.1378650071804698E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="34">
-        <v>4.86871851684295E-2</v>
-      </c>
-      <c r="C8" s="34">
-        <v>6.7676568955341299E-2</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="34">
-        <v>5.6189956529924999E-2</v>
-      </c>
-      <c r="H8" s="34">
-        <v>6.4757193766288995E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="34">
-        <v>4.0101440973972599E-2</v>
-      </c>
-      <c r="C9" s="34">
-        <v>4.0173126106629903E-2</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="34">
-        <v>4.8002730280756398E-2</v>
-      </c>
-      <c r="H9" s="34">
-        <v>4.6593266315621502E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="34">
-        <v>3.49955482196454E-2</v>
-      </c>
-      <c r="C10" s="34">
-        <v>4.4304544560299003E-2</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="34">
-        <v>4.36733886886271E-2</v>
-      </c>
-      <c r="H10" s="34">
-        <v>3.1221743524280601E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="34">
-        <v>2.9611237276546801E-2</v>
-      </c>
-      <c r="C11" s="34">
-        <v>2.0735785953177301E-2</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="34">
-        <v>3.7995910791002799E-2</v>
-      </c>
-      <c r="H11" s="34">
-        <v>4.5423115791713202E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="34">
-        <v>2.8064250764773299E-2</v>
-      </c>
-      <c r="C12" s="34">
-        <v>1.3850088530395399E-2</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="34">
-        <v>3.7897308332159298E-2</v>
-      </c>
-      <c r="H12" s="34">
-        <v>4.4252965267804902E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="34">
-        <v>2.7928461432547201E-2</v>
-      </c>
-      <c r="C13" s="34">
-        <v>4.11174503246114E-2</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="34">
-        <v>3.5271315369844798E-2</v>
-      </c>
-      <c r="H13" s="34">
-        <v>4.48380405297591E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="34">
-        <v>2.4967177983117698E-2</v>
-      </c>
-      <c r="C14" s="34">
-        <v>3.0651190241983099E-2</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="34">
-        <v>2.5318962211154501E-2</v>
-      </c>
-      <c r="H14" s="34">
-        <v>3.3535450242008401E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="34">
-        <v>2.4585370602153302E-2</v>
-      </c>
-      <c r="C15" s="34">
-        <v>4.9813102498524497E-2</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="34">
-        <v>2.16963002470833E-2</v>
-      </c>
-      <c r="H15" s="34">
-        <v>2.30572841870113E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="34">
-        <v>2.1637308019255001E-2</v>
-      </c>
-      <c r="C16" s="34">
-        <v>2.0775132795593201E-2</v>
-      </c>
-      <c r="F16" s="33" t="s">
+      <c r="B25" s="40">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C25" s="40">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="33">
+        <v>2.5026271582410001E-3</v>
+      </c>
+      <c r="H25" s="33">
+        <v>3.8295835327908099E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="40">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C26" s="40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="33">
+        <v>1.93483476933827E-3</v>
+      </c>
+      <c r="H26" s="33">
+        <v>2.6062443487048599E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C27" s="40">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="33">
+        <v>2.11401595318927E-4</v>
+      </c>
+      <c r="H27" s="33">
+        <v>3.72320621243551E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="40">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C28" s="40">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="33">
+        <v>8.3370579297905703E-5</v>
+      </c>
+      <c r="H28" s="33">
+        <v>1.5956598053294999E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="40">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="33">
+        <v>4.8833106034806699E-5</v>
+      </c>
+      <c r="H29" s="33">
+        <v>1.063773203553E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="34">
-        <v>1.9493498559561801E-2</v>
-      </c>
-      <c r="H16" s="34">
-        <v>3.0264347641082899E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="34">
-        <v>1.9924198988946401E-2</v>
-      </c>
-      <c r="C17" s="34">
-        <v>2.1719457013574701E-2</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="34">
-        <v>1.8999319895030699E-2</v>
-      </c>
-      <c r="H17" s="34">
-        <v>1.09568639965959E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="34">
-        <v>1.79789813568683E-2</v>
-      </c>
-      <c r="C18" s="34">
-        <v>1.03875663977966E-2</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="34">
-        <v>1.5611575624812499E-2</v>
-      </c>
-      <c r="H18" s="34">
-        <v>1.3350353704590199E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="34">
-        <v>1.6968616253064301E-2</v>
-      </c>
-      <c r="C19" s="34">
-        <v>1.44402911666339E-2</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="34">
-        <v>1.4518012026901299E-2</v>
-      </c>
-      <c r="H19" s="34">
-        <v>1.0797298016063E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="34">
-        <v>1.4888679676576101E-2</v>
-      </c>
-      <c r="C20" s="34">
-        <v>1.2630336415502701E-2</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="34">
-        <v>1.27012540938159E-2</v>
-      </c>
-      <c r="H20" s="34">
-        <v>1.6222541354183301E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="34">
-        <v>1.4866135543087799E-2</v>
-      </c>
-      <c r="C21" s="34">
-        <v>3.4664568168404498E-2</v>
-      </c>
-      <c r="F21" s="33" t="s">
+      <c r="B30" s="40">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="40">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="40">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C31" s="40">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="G21" s="34">
-        <v>1.2427598893924001E-2</v>
-      </c>
-      <c r="H21" s="34">
-        <v>1.42811552576991E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="34">
-        <v>1.4858628545277501E-2</v>
-      </c>
-      <c r="C22" s="34">
-        <v>1.7155223293330701E-2</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="34">
-        <v>8.9160449078527198E-3</v>
-      </c>
-      <c r="H22" s="34">
-        <v>7.7921387160257401E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="34">
-        <v>1.2436886241765E-2</v>
-      </c>
-      <c r="C23" s="34">
-        <v>2.1404682274247501E-2</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="34">
-        <v>6.6846401996933699E-3</v>
-      </c>
-      <c r="H23" s="34">
-        <v>7.2070634540715899E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="34">
-        <v>1.19318513513187E-2</v>
-      </c>
-      <c r="C24" s="34">
-        <v>7.7119811135156402E-3</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="34">
-        <v>2.7725983405526701E-3</v>
-      </c>
-      <c r="H24" s="34">
-        <v>4.0157438434125798E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="34">
-        <v>9.7120814682968605E-3</v>
-      </c>
-      <c r="C25" s="34">
-        <v>1.7115876450914801E-2</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="B32" s="40">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="40">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="40">
+        <v>2E-3</v>
+      </c>
+      <c r="C34" s="40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="34">
-        <v>2.5026271582410001E-3</v>
-      </c>
-      <c r="H25" s="34">
-        <v>3.8295835327908099E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B26" s="34">
-        <v>6.62324875350575E-3</v>
-      </c>
-      <c r="C26" s="34">
-        <v>9.4825890222309701E-3</v>
-      </c>
-      <c r="F26" s="33" t="s">
+      <c r="B35" s="40">
+        <v>2E-3</v>
+      </c>
+      <c r="C35" s="40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="40">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="34">
-        <v>1.93483476933827E-3</v>
-      </c>
-      <c r="H26" s="34">
-        <v>2.6062443487048599E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="34">
-        <v>6.5991751620626997E-3</v>
-      </c>
-      <c r="C27" s="34">
-        <v>1.61715522329333E-2</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="34">
-        <v>2.11401595318927E-4</v>
-      </c>
-      <c r="H27" s="34">
-        <v>3.72320621243551E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="34">
-        <v>6.5419032646097299E-3</v>
-      </c>
-      <c r="C28" s="34">
-        <v>1.3653354318316E-2</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="34">
-        <v>8.3370579297905703E-5</v>
-      </c>
-      <c r="H28" s="34">
-        <v>1.5956598053294999E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="34">
-        <v>6.5264400130833396E-3</v>
-      </c>
-      <c r="C29" s="34">
-        <v>1.03875663977966E-2</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="34">
-        <v>4.8833106034806699E-5</v>
-      </c>
-      <c r="H29" s="34">
-        <v>1.063773203553E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="34">
-        <v>6.4409403548997797E-3</v>
-      </c>
-      <c r="C30" s="34">
-        <v>1.3771394845563599E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
+      <c r="B37" s="40">
+        <v>0</v>
+      </c>
+      <c r="C37" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="34">
-        <v>5.9850601319008899E-3</v>
-      </c>
-      <c r="C31" s="34">
-        <v>1.42829037969703E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="34">
-        <v>5.9682791228028702E-3</v>
-      </c>
-      <c r="C32" s="34">
-        <v>1.3377926421404699E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="34">
-        <v>4.47659949489686E-3</v>
-      </c>
-      <c r="C33" s="34">
-        <v>4.7216210899075402E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B34" s="34">
-        <v>4.25022861534165E-3</v>
-      </c>
-      <c r="C34" s="34">
-        <v>9.0497737556561094E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="34">
-        <v>3.67568265056291E-3</v>
-      </c>
-      <c r="C35" s="34">
-        <v>8.2234900649222897E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B36" s="34">
-        <v>3.3983931385380898E-3</v>
-      </c>
-      <c r="C36" s="34">
-        <v>8.1841432225063897E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B37" s="34">
-        <v>3.3193634548427898E-3</v>
-      </c>
-      <c r="C37" s="34">
-        <v>7.3972063741884701E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B38" s="34">
-        <v>2.9958170634246401E-3</v>
-      </c>
-      <c r="C38" s="34">
-        <v>6.6496163682864496E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B39" s="34">
-        <v>2.6051528774008702E-3</v>
-      </c>
-      <c r="C39" s="34">
-        <v>4.5248868778280504E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B40" s="34">
-        <v>2.5536463479840701E-3</v>
-      </c>
-      <c r="C40" s="34">
-        <v>7.0430847924454103E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" s="34">
-        <v>2.2010983837218098E-3</v>
-      </c>
-      <c r="C41" s="34">
-        <v>3.9740310840055103E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" s="34">
-        <v>2.1348133636179701E-3</v>
-      </c>
-      <c r="C42" s="34">
-        <v>5.0363958292346999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B43" s="34">
-        <v>1.67319349852983E-3</v>
-      </c>
-      <c r="C43" s="34">
-        <v>2.6362384418650402E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" s="34">
-        <v>1.65576517721324E-3</v>
-      </c>
-      <c r="C44" s="34">
-        <v>2.79362581152862E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="34">
-        <v>1.4994221128844199E-3</v>
-      </c>
-      <c r="C45" s="34">
-        <v>3.5018689750147599E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B46" s="34">
-        <v>1.4288779529421901E-3</v>
-      </c>
-      <c r="C46" s="34">
-        <v>2.55754475703325E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="34">
-        <v>1.2512058310244301E-3</v>
-      </c>
-      <c r="C47" s="34">
-        <v>2.51819791461735E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" s="34">
-        <v>7.9290725838822198E-4</v>
-      </c>
-      <c r="C48" s="34">
-        <v>1.8493015935471199E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49" s="34">
-        <v>5.4844811853032097E-4</v>
-      </c>
-      <c r="C49" s="34">
-        <v>1.0623647452292001E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B50" s="34">
-        <v>3.2397407510044202E-4</v>
-      </c>
-      <c r="C50" s="34">
-        <v>9.0497737556561101E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="B51" s="34">
-        <v>1.54725872793464E-4</v>
-      </c>
-      <c r="C51" s="34">
-        <v>5.9020263623844199E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="B52" s="34">
-        <v>9.5637789908968197E-5</v>
-      </c>
-      <c r="C52" s="34">
-        <v>2.7542789691127303E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="34">
-        <v>6.3262552065159394E-5</v>
-      </c>
-      <c r="C53" s="34">
-        <v>7.8693684831792295E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="34">
-        <v>1.19276438014319E-5</v>
-      </c>
-      <c r="C54" s="34">
-        <v>3.93468424158961E-5</v>
+      <c r="B38" s="40">
+        <v>0</v>
+      </c>
+      <c r="C38" s="40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tracking/features.xlsx
+++ b/tracking/features.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Original features" sheetId="1" r:id="rId1"/>
     <sheet name="related posts" sheetId="3" r:id="rId2"/>
     <sheet name="New features importance" sheetId="4" r:id="rId3"/>
+    <sheet name="new features importance2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="225">
   <si>
     <t>#</t>
   </si>
@@ -686,6 +687,24 @@
   </si>
   <si>
     <t>XGboost_Features</t>
+  </si>
+  <si>
+    <t>car13_car15</t>
+  </si>
+  <si>
+    <t>avg_car13_on_car04</t>
+  </si>
+  <si>
+    <t>avg_car13_on_car01</t>
+  </si>
+  <si>
+    <t>avg_car13_on_car02</t>
+  </si>
+  <si>
+    <t>avg_car13_on_car09</t>
+  </si>
+  <si>
+    <t>avg_car13_on_car07</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2592,7 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3284,4 +3305,489 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" style="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.101656934296827</v>
+      </c>
+      <c r="C2" s="33">
+        <v>6.6965699877092305E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="33">
+        <v>9.6344092634208303E-2</v>
+      </c>
+      <c r="C3" s="33">
+        <v>3.5123731326263001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="33">
+        <v>8.8698965442326402E-2</v>
+      </c>
+      <c r="C4" s="33">
+        <v>8.7695290226935799E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="33">
+        <v>8.4505237294001001E-2</v>
+      </c>
+      <c r="C5" s="33">
+        <v>4.6274122223489297E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="33">
+        <v>6.7088878201772104E-2</v>
+      </c>
+      <c r="C6" s="33">
+        <v>7.2806984199389302E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="33">
+        <v>6.2213766387722899E-2</v>
+      </c>
+      <c r="C7" s="33">
+        <v>3.01694099162454E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="33">
+        <v>4.5318318014859603E-2</v>
+      </c>
+      <c r="C8" s="33">
+        <v>5.6892335373348001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="33">
+        <v>3.9305506223947399E-2</v>
+      </c>
+      <c r="C9" s="33">
+        <v>3.3818628755337601E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="33">
+        <v>3.3232462402815299E-2</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2.4315454695201501E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="33">
+        <v>3.2483758386462801E-2</v>
+      </c>
+      <c r="C11" s="33">
+        <v>4.2713599675624998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2.9993466073982299E-2</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1.31523928992283E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="33">
+        <v>2.7603053887888002E-2</v>
+      </c>
+      <c r="C13" s="33">
+        <v>4.73131359207309E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="33">
+        <v>2.52971077138569E-2</v>
+      </c>
+      <c r="C14" s="33">
+        <v>3.3438501792932201E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="33">
+        <v>2.3395824042367799E-2</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2.1325122590945399E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="33">
+        <v>2.1389975640313301E-2</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2.29469976305419E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1.97792005363027E-2</v>
+      </c>
+      <c r="C17" s="33">
+        <v>4.3017701245549399E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1.8332561813045101E-2</v>
+      </c>
+      <c r="C18" s="33">
+        <v>1.00987063012379E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1.82159685046967E-2</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1.03267824786812E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="33">
+        <v>1.71752669295837E-2</v>
+      </c>
+      <c r="C20" s="33">
+        <v>1.4482837267647399E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="33">
+        <v>1.5341075746750499E-2</v>
+      </c>
+      <c r="C21" s="33">
+        <v>1.2645556949354399E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="33">
+        <v>1.3781024809619799E-2</v>
+      </c>
+      <c r="C22" s="33">
+        <v>1.8600879360373E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="33">
+        <v>1.1465591000674199E-2</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2.5835962544823302E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="33">
+        <v>1.13724942097926E-2</v>
+      </c>
+      <c r="C24" s="33">
+        <v>1.0820947529808301E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="33">
+        <v>1.1337150692633E-2</v>
+      </c>
+      <c r="C25" s="33">
+        <v>1.7207080498219701E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="33">
+        <v>1.1006266733819801E-2</v>
+      </c>
+      <c r="C26" s="33">
+        <v>2.6013355127279199E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="33">
+        <v>9.6431304970415292E-3</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2.63427984946972E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="33">
+        <v>9.3597726642553596E-3</v>
+      </c>
+      <c r="C28" s="33">
+        <v>2.7787280951837901E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="33">
+        <v>7.9618701715402796E-3</v>
+      </c>
+      <c r="C29" s="33">
+        <v>2.1502515173401199E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="33">
+        <v>6.6362163637294497E-3</v>
+      </c>
+      <c r="C30" s="33">
+        <v>1.8765601044082099E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="33">
+        <v>6.6296047960354597E-3</v>
+      </c>
+      <c r="C31" s="33">
+        <v>8.0586916029953999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="33">
+        <v>6.4159892816749702E-3</v>
+      </c>
+      <c r="C32" s="33">
+        <v>1.6180737699725001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="33">
+        <v>5.9304580792587302E-3</v>
+      </c>
+      <c r="C33" s="33">
+        <v>9.4524904651486896E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="33">
+        <v>5.8070424355452597E-3</v>
+      </c>
+      <c r="C34" s="33">
+        <v>7.5518556531214802E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="33">
+        <v>5.3690981965173398E-3</v>
+      </c>
+      <c r="C35" s="33">
+        <v>1.3431152671658999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="33">
+        <v>3.6175072691710698E-3</v>
+      </c>
+      <c r="C36" s="33">
+        <v>1.02127443899596E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="33">
+        <v>1.9417804630933999E-3</v>
+      </c>
+      <c r="C37" s="33">
+        <v>6.0947022972339402E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="33">
+        <v>1.2060050678853701E-3</v>
+      </c>
+      <c r="C38" s="33">
+        <v>3.2944336741805099E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="33">
+        <v>1.17362041850181E-3</v>
+      </c>
+      <c r="C39" s="33">
+        <v>2.5215088506227701E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="33">
+        <v>1.0738444852093001E-3</v>
+      </c>
+      <c r="C40" s="33">
+        <v>2.1540527869641801E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="33">
+        <v>7.6897910828771499E-4</v>
+      </c>
+      <c r="C41" s="33">
+        <v>2.1033691919767898E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="33">
+        <v>1.3113308198388899E-4</v>
+      </c>
+      <c r="C42" s="33">
+        <v>5.4484864611446901E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tracking/features.xlsx
+++ b/tracking/features.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="3880" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Original features" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="226">
   <si>
     <t>#</t>
   </si>
@@ -599,15 +599,9 @@
     <t>whether claimed before?</t>
   </si>
   <si>
-    <t># of preivous insurance claims?</t>
-  </si>
-  <si>
     <t>age groups…??? (the higher ps_ind_03, the higher ps_ind_01; and insurance claim rate is higher on two sides)</t>
   </si>
   <si>
-    <t>single or married or divorced? (something related to marriage, different group has different distribution of ps_ind_01)</t>
-  </si>
-  <si>
     <t>regional information; (4*ps_reg_03)^2 maps nicely to 2 decimal points</t>
   </si>
   <si>
@@ -705,6 +699,15 @@
   </si>
   <si>
     <t>avg_car13_on_car07</t>
+  </si>
+  <si>
+    <t>single or married or divorced? (something related to marriage or gender, different group has different distribution of ps_ind_01)</t>
+  </si>
+  <si>
+    <t>ps_ind_14 = (ps_ind_10 + ps_ind_11 + ps_ind_12 + ps_ind_13)</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/porto-seguro-safe-driver-prediction/discussion/41907</t>
   </si>
 </sst>
 </file>
@@ -942,16 +945,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1232,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1377,7 @@
         <v>148</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1431,10 +1434,10 @@
       <c r="E9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="40" t="s">
         <v>187</v>
       </c>
       <c r="H9" s="30" t="s">
@@ -1457,8 +1460,8 @@
       <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
@@ -1476,8 +1479,8 @@
       <c r="E11" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
@@ -1495,8 +1498,8 @@
       <c r="E12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1598,7 +1601,10 @@
         <v>155</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>189</v>
+        <v>224</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -1636,11 +1642,11 @@
       <c r="E19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>191</v>
+      <c r="G19" s="40" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1659,8 +1665,8 @@
       <c r="E20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
@@ -1678,8 +1684,8 @@
       <c r="E21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
@@ -1701,7 +1707,7 @@
         <v>146</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1724,7 +1730,7 @@
         <v>148</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1747,7 +1753,7 @@
         <v>148</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>176</v>
@@ -2036,7 +2042,7 @@
         <v>148</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H38" s="30" t="s">
         <v>171</v>
@@ -2624,33 +2630,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>197</v>
+      <c r="A1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="40">
+      <c r="A2" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="38">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="38">
         <v>0.05</v>
       </c>
       <c r="F2" s="32" t="s">
@@ -2664,13 +2670,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="40">
+      <c r="A3" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="38">
         <v>9.4E-2</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="38">
         <v>6.2E-2</v>
       </c>
       <c r="F3" s="32" t="s">
@@ -2684,17 +2690,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="40">
+      <c r="A4" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="38">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G4" s="33">
         <v>8.6423581872367594E-2</v>
@@ -2704,17 +2710,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="38">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="38">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G5" s="33">
         <v>8.5035924618113101E-2</v>
@@ -2724,13 +2730,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="38">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="38">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F6" s="32" t="s">
@@ -2744,13 +2750,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>5.5E-2</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="38">
         <v>2.3E-2</v>
       </c>
       <c r="F7" s="32" t="s">
@@ -2764,13 +2770,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="F8" s="32" t="s">
@@ -2784,17 +2790,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="40">
+      <c r="A9" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="38">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="38">
         <v>0.04</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G9" s="33">
         <v>4.8002730280756398E-2</v>
@@ -2804,13 +2810,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="38">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -2824,13 +2830,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="40">
+      <c r="A11" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="38">
         <v>3.1E-2</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="38">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="F11" s="32" t="s">
@@ -2844,13 +2850,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="40">
+      <c r="A12" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="38">
         <v>3.1E-2</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="38">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -2864,17 +2870,17 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="38">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="38">
         <v>3.9E-2</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G13" s="33">
         <v>3.5271315369844798E-2</v>
@@ -2884,13 +2890,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="40">
+      <c r="A14" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="38">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="38">
         <v>5.5E-2</v>
       </c>
       <c r="F14" s="32" t="s">
@@ -2904,17 +2910,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="38">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G15" s="33">
         <v>2.16963002470833E-2</v>
@@ -2924,13 +2930,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="40">
+      <c r="A16" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="38">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="38">
         <v>0.03</v>
       </c>
       <c r="F16" s="32" t="s">
@@ -2944,13 +2950,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="40">
+      <c r="A17" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" s="38">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="38">
         <v>3.1E-2</v>
       </c>
       <c r="F17" s="32" t="s">
@@ -2964,13 +2970,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="40">
+      <c r="A18" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="38">
         <v>0.02</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="38">
         <v>0.02</v>
       </c>
       <c r="F18" s="32" t="s">
@@ -2984,13 +2990,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="40">
+      <c r="A19" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="38">
         <v>0.02</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="38">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -3004,13 +3010,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="38">
         <v>1.9E-2</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F20" s="32" t="s">
@@ -3024,17 +3030,17 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="38">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="38">
         <v>1.2E-2</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G21" s="33">
         <v>1.2427598893924001E-2</v>
@@ -3044,13 +3050,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="38">
         <v>1.6E-2</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="38">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F22" s="32" t="s">
@@ -3064,13 +3070,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="38">
         <v>1.6E-2</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="38">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F23" s="32" t="s">
@@ -3084,17 +3090,17 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="40">
+      <c r="A24" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="38">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G24" s="33">
         <v>2.7725983405526701E-3</v>
@@ -3104,13 +3110,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="38">
         <v>1.2E-2</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="38">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F25" s="32" t="s">
@@ -3124,13 +3130,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="40">
+      <c r="B26" s="38">
         <v>1.2E-2</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="38">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F26" s="32" t="s">
@@ -3144,13 +3150,13 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="38">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="38">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F27" s="32" t="s">
@@ -3164,13 +3170,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B28" s="40">
+      <c r="A28" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="38">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="38">
         <v>1.6E-2</v>
       </c>
       <c r="F28" s="32" t="s">
@@ -3184,13 +3190,13 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="40">
+      <c r="A29" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" s="38">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="38">
         <v>0.01</v>
       </c>
       <c r="F29" s="32" t="s">
@@ -3204,101 +3210,101 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="38">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="38">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="38">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="38">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C32" s="38">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C33" s="38">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="40">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C32" s="40">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="B34" s="38">
+        <v>2E-3</v>
+      </c>
+      <c r="C34" s="38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="38">
+        <v>2E-3</v>
+      </c>
+      <c r="C35" s="38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="B33" s="40">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C33" s="40">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="B36" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="C36" s="38">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="38">
+        <v>0</v>
+      </c>
+      <c r="C37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="40">
-        <v>2E-3</v>
-      </c>
-      <c r="C34" s="40">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="40">
-        <v>2E-3</v>
-      </c>
-      <c r="C35" s="40">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B36" s="40">
-        <v>1E-3</v>
-      </c>
-      <c r="C36" s="40">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="40">
+      <c r="B38" s="38">
         <v>0</v>
       </c>
-      <c r="C37" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="40">
-        <v>0</v>
-      </c>
-      <c r="C38" s="40">
+      <c r="C38" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3311,7 +3317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3320,22 +3326,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>217</v>
+      <c r="A1" s="35" t="s">
+        <v>215</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="33">
         <v>0.101656934296827</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="33">
         <v>9.6344092634208303E-2</v>
@@ -3371,7 +3377,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="33">
         <v>8.4505237294001001E-2</v>
@@ -3415,7 +3421,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" s="33">
         <v>3.9305506223947399E-2</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="33">
         <v>3.3232462402815299E-2</v>
@@ -3459,7 +3465,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="33">
         <v>2.7603053887888002E-2</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B15" s="33">
         <v>2.3395824042367799E-2</v>
@@ -3492,7 +3498,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="33">
         <v>2.1389975640313301E-2</v>
@@ -3503,7 +3509,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" s="33">
         <v>1.97792005363027E-2</v>
@@ -3536,7 +3542,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B20" s="33">
         <v>1.71752669295837E-2</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B21" s="33">
         <v>1.5341075746750499E-2</v>
@@ -3558,7 +3564,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B22" s="33">
         <v>1.3781024809619799E-2</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" s="33">
         <v>1.1465591000674199E-2</v>
@@ -3602,7 +3608,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B26" s="33">
         <v>1.1006266733819801E-2</v>
@@ -3613,7 +3619,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B27" s="33">
         <v>9.6431304970415292E-3</v>
@@ -3635,7 +3641,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B29" s="33">
         <v>7.9618701715402796E-3</v>
@@ -3646,7 +3652,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B30" s="33">
         <v>6.6362163637294497E-3</v>
@@ -3679,7 +3685,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B33" s="33">
         <v>5.9304580792587302E-3</v>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B35" s="33">
         <v>5.3690981965173398E-3</v>
@@ -3712,7 +3718,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B36" s="33">
         <v>3.6175072691710698E-3</v>
@@ -3734,7 +3740,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B38" s="33">
         <v>1.2060050678853701E-3</v>
@@ -3745,7 +3751,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B39" s="33">
         <v>1.17362041850181E-3</v>
@@ -3767,7 +3773,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B41" s="33">
         <v>7.6897910828771499E-4</v>
@@ -3778,7 +3784,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B42" s="33">
         <v>1.3113308198388899E-4</v>
